--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harpreet.singh02\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harpreet.singh02\Desktop\A1_Assignment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5691BE-353E-4D0F-9C1E-DDC7E1B600FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294F1711-B70D-4DB7-8942-9E047462119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4EAE193C-9E4C-4CFB-A9D2-C1B6733E77E1}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Subjects</t>
   </si>
   <si>
-    <t>Maths, English, Science</t>
-  </si>
-  <si>
     <t>Current Address</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
       </rPr>
       <t>harpreet.singh02@irissoftware.com</t>
     </r>
+  </si>
+  <si>
+    <t>Maths, English, Computer Science</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -577,31 +577,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
